--- a/06_납품현황/2018/04_천안순천향대학병원/02_SerialNumber/USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2018/04_천안순천향대학병원/02_SerialNumber/USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2018\03_부천\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2018\04_천안순천향대학병원\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>USM</t>
   </si>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS310"/>
+  <dimension ref="A1:BS354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171:E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>6754</v>
+        <v>9421</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>129</v>
       </c>
       <c r="E4" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
       </c>
       <c r="G4" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>6763</v>
+        <v>9422</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>129</v>
       </c>
       <c r="E5" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
       </c>
       <c r="G5" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>6985</v>
+        <v>9423</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E6" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -696,25 +696,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>6986</v>
+        <v>9424</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -766,25 +766,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>6987</v>
+        <v>9425</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
       </c>
       <c r="G8" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -836,25 +836,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>6988</v>
+        <v>9426</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E9" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3">
         <v>1</v>
@@ -906,25 +906,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>6989</v>
+        <v>9427</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
       </c>
       <c r="G10" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -976,25 +976,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>6990</v>
+        <v>9428</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
       </c>
       <c r="G11" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -1046,25 +1046,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>7721</v>
+        <v>9429</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
       </c>
       <c r="G12" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>6525</v>
+        <v>9430</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
       </c>
       <c r="G13" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="1"/>
@@ -1186,28 +1186,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>6528</v>
+        <v>9431</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
       </c>
       <c r="G14" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="1"/>
@@ -1256,28 +1256,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>6604</v>
+        <v>9432</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
       </c>
       <c r="G15" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="1"/>
@@ -1326,28 +1326,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>6605</v>
+        <v>9433</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
       </c>
       <c r="G16" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="1"/>
@@ -1395,28 +1395,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>6699</v>
+        <v>9434</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
       </c>
       <c r="G17" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="1"/>
@@ -1463,28 +1463,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>50000</v>
+        <v>9435</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
       </c>
       <c r="G18" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="1"/>
@@ -1533,28 +1533,28 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>50001</v>
+        <v>9436</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
       </c>
       <c r="G19" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2"/>
       <c r="M19" s="1"/>
@@ -1599,8 +1599,34 @@
       <c r="BS19" s="2"/>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9437</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
@@ -1608,6 +1634,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="3"/>
+      <c r="W20" s="2"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="3"/>
@@ -1615,6 +1642,23 @@
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="3"/>
+      <c r="AI20" s="2"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="3"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="3"/>
+      <c r="AU20" s="2"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="3"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="3"/>
+      <c r="BG20" s="2"/>
       <c r="BI20" s="1"/>
       <c r="BJ20" s="2"/>
       <c r="BK20" s="3"/>
@@ -1622,13 +1666,37 @@
       <c r="BO20" s="4"/>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="3"/>
+      <c r="BS20" s="2"/>
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9438</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>134</v>
+      </c>
+      <c r="E21" s="1">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>8</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="K21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3"/>
@@ -1636,6 +1704,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="3"/>
+      <c r="W21" s="2"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
@@ -1643,6 +1712,23 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="3"/>
+      <c r="AI21" s="2"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="3"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="3"/>
+      <c r="AU21" s="2"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="3"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="3"/>
+      <c r="BG21" s="2"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="2"/>
       <c r="BK21" s="3"/>
@@ -1650,18 +1736,37 @@
       <c r="BO21" s="4"/>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="3"/>
+      <c r="BS21" s="2"/>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>70000</v>
+        <v>9439</v>
       </c>
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="D22" s="1">
+        <v>135</v>
+      </c>
+      <c r="E22" s="1">
+        <v>200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
@@ -1669,6 +1774,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="3"/>
+      <c r="W22" s="2"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="3"/>
@@ -1676,6 +1782,23 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="3"/>
+      <c r="AI22" s="2"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="3"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="3"/>
+      <c r="AU22" s="2"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="3"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="3"/>
+      <c r="BG22" s="2"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="2"/>
       <c r="BK22" s="3"/>
@@ -1683,18 +1806,37 @@
       <c r="BO22" s="4"/>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="3"/>
+      <c r="BS22" s="2"/>
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>70001</v>
+        <v>9440</v>
       </c>
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="D23" s="1">
+        <v>135</v>
+      </c>
+      <c r="E23" s="1">
+        <v>200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>100</v>
+      </c>
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
@@ -1702,12 +1844,31 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="3"/>
+      <c r="W23" s="2"/>
       <c r="Y23" s="1"/>
+      <c r="Z23" s="2"/>
       <c r="AA23" s="3"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="3"/>
+      <c r="AI23" s="2"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="3"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="3"/>
+      <c r="AU23" s="2"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="3"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="3"/>
+      <c r="BG23" s="2"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="3"/>
@@ -1715,10 +1876,37 @@
       <c r="BO23" s="4"/>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="3"/>
+      <c r="BS23" s="2"/>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9441</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1">
+        <v>200</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4">
+        <v>8</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2"/>
       <c r="M24" s="1"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3"/>
@@ -1726,6 +1914,31 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="3"/>
+      <c r="W24" s="2"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="3"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="3"/>
+      <c r="AI24" s="2"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="3"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="3"/>
+      <c r="AU24" s="2"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="3"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="3"/>
+      <c r="BG24" s="2"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="3"/>
@@ -1733,10 +1946,37 @@
       <c r="BO24" s="4"/>
       <c r="BP24" s="4"/>
       <c r="BQ24" s="3"/>
+      <c r="BS24" s="2"/>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>9442</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>136</v>
+      </c>
+      <c r="E25" s="1">
+        <v>200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4">
+        <v>8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="M25" s="1"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3"/>
@@ -1744,6 +1984,31 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="3"/>
+      <c r="W25" s="2"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="3"/>
+      <c r="AI25" s="2"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="3"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="3"/>
+      <c r="AU25" s="2"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="3"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="3"/>
+      <c r="BG25" s="2"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="2"/>
       <c r="BK25" s="3"/>
@@ -1751,10 +2016,37 @@
       <c r="BO25" s="4"/>
       <c r="BP25" s="4"/>
       <c r="BQ25" s="3"/>
+      <c r="BS25" s="2"/>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9443</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="M26" s="1"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3"/>
@@ -1762,10 +2054,69 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="3"/>
+      <c r="W26" s="2"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="3"/>
+      <c r="AI26" s="2"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="3"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="3"/>
+      <c r="AU26" s="2"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="3"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="3"/>
+      <c r="BG26" s="2"/>
+      <c r="BI26" s="1"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="3"/>
+      <c r="BN26" s="1"/>
+      <c r="BO26" s="4"/>
+      <c r="BP26" s="4"/>
+      <c r="BQ26" s="3"/>
+      <c r="BS26" s="2"/>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9444</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1">
+        <v>200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="M27" s="1"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
@@ -1773,10 +2124,69 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="3"/>
+      <c r="W27" s="2"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="3"/>
+      <c r="AI27" s="2"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="3"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="3"/>
+      <c r="AU27" s="2"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="3"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="3"/>
+      <c r="BG27" s="2"/>
+      <c r="BI27" s="1"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="3"/>
+      <c r="BN27" s="1"/>
+      <c r="BO27" s="4"/>
+      <c r="BP27" s="4"/>
+      <c r="BQ27" s="3"/>
+      <c r="BS27" s="2"/>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9445</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>137</v>
+      </c>
+      <c r="E28" s="1">
+        <v>200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="M28" s="1"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
@@ -1784,10 +2194,69 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="3"/>
+      <c r="W28" s="2"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="3"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="3"/>
+      <c r="AI28" s="2"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="3"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="3"/>
+      <c r="AU28" s="2"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="3"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="3"/>
+      <c r="BG28" s="2"/>
+      <c r="BI28" s="1"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="3"/>
+      <c r="BN28" s="1"/>
+      <c r="BO28" s="4"/>
+      <c r="BP28" s="4"/>
+      <c r="BQ28" s="3"/>
+      <c r="BS28" s="2"/>
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9446</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>100</v>
+      </c>
+      <c r="G29" s="4">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2"/>
       <c r="M29" s="1"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3"/>
@@ -1795,138 +2264,6422 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="3"/>
+      <c r="W29" s="2"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="3"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="3"/>
+      <c r="AI29" s="2"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="3"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="3"/>
+      <c r="AU29" s="2"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="3"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="3"/>
+      <c r="BG29" s="2"/>
+      <c r="BI29" s="1"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="3"/>
+      <c r="BN29" s="1"/>
+      <c r="BO29" s="4"/>
+      <c r="BP29" s="4"/>
+      <c r="BQ29" s="3"/>
+      <c r="BS29" s="2"/>
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9447</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1">
+        <v>200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>100</v>
+      </c>
+      <c r="G30" s="4">
+        <v>8</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="3"/>
+      <c r="W30" s="2"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="3"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="3"/>
+      <c r="AI30" s="2"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="3"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="3"/>
+      <c r="AU30" s="2"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="3"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="3"/>
+      <c r="BG30" s="2"/>
+      <c r="BI30" s="1"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="3"/>
+      <c r="BN30" s="1"/>
+      <c r="BO30" s="4"/>
+      <c r="BP30" s="4"/>
+      <c r="BQ30" s="3"/>
+      <c r="BS30" s="2"/>
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9448</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1">
+        <v>200</v>
+      </c>
+      <c r="F31" s="1">
+        <v>100</v>
+      </c>
+      <c r="G31" s="4">
+        <v>8</v>
+      </c>
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="3"/>
+      <c r="W31" s="2"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="3"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="3"/>
+      <c r="AI31" s="2"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="3"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="3"/>
+      <c r="AU31" s="2"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="3"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="3"/>
+      <c r="BG31" s="2"/>
+      <c r="BI31" s="1"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="3"/>
+      <c r="BN31" s="1"/>
+      <c r="BO31" s="4"/>
+      <c r="BP31" s="4"/>
+      <c r="BQ31" s="3"/>
+      <c r="BS31" s="2"/>
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.4">
-      <c r="C32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B275" s="5"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B276" s="5"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B277" s="5"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B278" s="5"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B280" s="5"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B281" s="5"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B282" s="5"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B283" s="5"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B284" s="5"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B285" s="5"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B287" s="5"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B288" s="5"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B289" s="5"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B290" s="5"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B291" s="5"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B292" s="5"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B293" s="5"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B295" s="5"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B296" s="5"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B297" s="5"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B298" s="5"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B299" s="5"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B300" s="5"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B301" s="5"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B302" s="5"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B303" s="5"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B304" s="5"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B305" s="5"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B306" s="5"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B307" s="5"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B308" s="5"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B309" s="5"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B310" s="5"/>
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9449</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1">
+        <v>200</v>
+      </c>
+      <c r="F32" s="1">
+        <v>100</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="3"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="3"/>
+      <c r="W32" s="2"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="3"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="3"/>
+      <c r="AI32" s="2"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="3"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="4"/>
+      <c r="AR32" s="4"/>
+      <c r="AS32" s="3"/>
+      <c r="AU32" s="2"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="3"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
+      <c r="BE32" s="3"/>
+      <c r="BG32" s="2"/>
+      <c r="BI32" s="1"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="3"/>
+      <c r="BN32" s="1"/>
+      <c r="BO32" s="4"/>
+      <c r="BP32" s="4"/>
+      <c r="BQ32" s="3"/>
+      <c r="BS32" s="2"/>
+    </row>
+    <row r="33" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9450</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>139</v>
+      </c>
+      <c r="E33" s="1">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>100</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="3"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="3"/>
+      <c r="W33" s="2"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="3"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="3"/>
+      <c r="AI33" s="2"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="3"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="3"/>
+      <c r="AU33" s="2"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="3"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="4"/>
+      <c r="BD33" s="4"/>
+      <c r="BE33" s="3"/>
+      <c r="BG33" s="2"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="3"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="4"/>
+      <c r="BP33" s="4"/>
+      <c r="BQ33" s="3"/>
+      <c r="BS33" s="2"/>
+    </row>
+    <row r="34" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9451</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>139</v>
+      </c>
+      <c r="E34" s="1">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>100</v>
+      </c>
+      <c r="G34" s="4">
+        <v>8</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="3"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="3"/>
+      <c r="W34" s="2"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="3"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="3"/>
+      <c r="AI34" s="2"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="3"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="4"/>
+      <c r="AR34" s="4"/>
+      <c r="AS34" s="3"/>
+      <c r="AU34" s="2"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="3"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="3"/>
+      <c r="BG34" s="2"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="3"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="4"/>
+      <c r="BP34" s="4"/>
+      <c r="BQ34" s="3"/>
+      <c r="BS34" s="2"/>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9452</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>139</v>
+      </c>
+      <c r="E35" s="1">
+        <v>200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>100</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="3"/>
+      <c r="W35" s="2"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="3"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="3"/>
+      <c r="AI35" s="2"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="4"/>
+      <c r="AR35" s="4"/>
+      <c r="AS35" s="3"/>
+      <c r="AU35" s="2"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="3"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="3"/>
+      <c r="BG35" s="2"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="3"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="4"/>
+      <c r="BP35" s="4"/>
+      <c r="BQ35" s="3"/>
+      <c r="BS35" s="2"/>
+    </row>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9453</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>140</v>
+      </c>
+      <c r="E36" s="1">
+        <v>200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="3"/>
+      <c r="W36" s="2"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="3"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="3"/>
+      <c r="AI36" s="2"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="3"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="4"/>
+      <c r="AR36" s="4"/>
+      <c r="AS36" s="3"/>
+      <c r="AU36" s="2"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="3"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="4"/>
+      <c r="BD36" s="4"/>
+      <c r="BE36" s="3"/>
+      <c r="BG36" s="2"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="3"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="4"/>
+      <c r="BP36" s="4"/>
+      <c r="BQ36" s="3"/>
+      <c r="BS36" s="2"/>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9454</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>140</v>
+      </c>
+      <c r="E37" s="1">
+        <v>200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>100</v>
+      </c>
+      <c r="G37" s="4">
+        <v>8</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="3"/>
+      <c r="W37" s="2"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="3"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="3"/>
+      <c r="AI37" s="2"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="3"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="3"/>
+      <c r="AU37" s="2"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="3"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="3"/>
+      <c r="BG37" s="2"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="3"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="4"/>
+      <c r="BP37" s="4"/>
+      <c r="BQ37" s="3"/>
+      <c r="BS37" s="2"/>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9455</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1">
+        <v>200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>100</v>
+      </c>
+      <c r="G38" s="4">
+        <v>8</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="3"/>
+      <c r="W38" s="2"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="3"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="3"/>
+      <c r="AI38" s="2"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="3"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="4"/>
+      <c r="AR38" s="4"/>
+      <c r="AS38" s="3"/>
+      <c r="AU38" s="2"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="3"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="4"/>
+      <c r="BD38" s="4"/>
+      <c r="BE38" s="3"/>
+      <c r="BG38" s="2"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="3"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="4"/>
+      <c r="BP38" s="4"/>
+      <c r="BQ38" s="3"/>
+      <c r="BS38" s="2"/>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9456</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>140</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="4">
+        <v>8</v>
+      </c>
+      <c r="H39" s="4">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="3"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="3"/>
+      <c r="W39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="3"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="3"/>
+      <c r="AI39" s="2"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="3"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="3"/>
+      <c r="AU39" s="2"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="3"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="4"/>
+      <c r="BD39" s="4"/>
+      <c r="BE39" s="3"/>
+      <c r="BG39" s="2"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="3"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="4"/>
+      <c r="BP39" s="4"/>
+      <c r="BQ39" s="3"/>
+      <c r="BS39" s="2"/>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9457</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>141</v>
+      </c>
+      <c r="E40" s="1">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>100</v>
+      </c>
+      <c r="G40" s="4">
+        <v>8</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="3"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="3"/>
+      <c r="W40" s="2"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="3"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="3"/>
+      <c r="AI40" s="2"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="3"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="3"/>
+      <c r="AU40" s="2"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="3"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="4"/>
+      <c r="BD40" s="4"/>
+      <c r="BE40" s="3"/>
+      <c r="BG40" s="2"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="3"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="4"/>
+      <c r="BP40" s="4"/>
+      <c r="BQ40" s="3"/>
+      <c r="BS40" s="2"/>
+    </row>
+    <row r="41" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>9458</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>141</v>
+      </c>
+      <c r="E41" s="1">
+        <v>200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>100</v>
+      </c>
+      <c r="G41" s="4">
+        <v>8</v>
+      </c>
+      <c r="H41" s="4">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="3"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="3"/>
+      <c r="W41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="3"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="3"/>
+      <c r="AI41" s="2"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="3"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="3"/>
+      <c r="AU41" s="2"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="3"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="4"/>
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="3"/>
+      <c r="BG41" s="2"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="3"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="4"/>
+      <c r="BP41" s="4"/>
+      <c r="BQ41" s="3"/>
+      <c r="BS41" s="2"/>
+    </row>
+    <row r="42" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2">
+        <v>9459</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>100</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="4">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="3"/>
+      <c r="W42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="3"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="3"/>
+      <c r="AI42" s="2"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="3"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="4"/>
+      <c r="AR42" s="4"/>
+      <c r="AS42" s="3"/>
+      <c r="AU42" s="2"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="3"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="4"/>
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="3"/>
+      <c r="BG42" s="2"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="3"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="4"/>
+      <c r="BP42" s="4"/>
+      <c r="BQ42" s="3"/>
+      <c r="BS42" s="2"/>
+    </row>
+    <row r="43" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2">
+        <v>9460</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>141</v>
+      </c>
+      <c r="E43" s="1">
+        <v>200</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="4">
+        <v>8</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="3"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="3"/>
+      <c r="W43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="3"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="3"/>
+      <c r="AI43" s="2"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="3"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="4"/>
+      <c r="AR43" s="4"/>
+      <c r="AS43" s="3"/>
+      <c r="AU43" s="2"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="3"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="4"/>
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="3"/>
+      <c r="BG43" s="2"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="2"/>
+      <c r="BK43" s="3"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="4"/>
+      <c r="BP43" s="4"/>
+      <c r="BQ43" s="3"/>
+      <c r="BS43" s="2"/>
+    </row>
+    <row r="44" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9461</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>142</v>
+      </c>
+      <c r="E44" s="1">
+        <v>200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8</v>
+      </c>
+      <c r="H44" s="4">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="3"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="3"/>
+      <c r="W44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="3"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="3"/>
+      <c r="AI44" s="2"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="3"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="4"/>
+      <c r="AR44" s="4"/>
+      <c r="AS44" s="3"/>
+      <c r="AU44" s="2"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="3"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="4"/>
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="3"/>
+      <c r="BG44" s="2"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="2"/>
+      <c r="BK44" s="3"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="4"/>
+      <c r="BP44" s="4"/>
+      <c r="BQ44" s="3"/>
+      <c r="BS44" s="2"/>
+    </row>
+    <row r="45" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9462</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1">
+        <v>200</v>
+      </c>
+      <c r="F45" s="1">
+        <v>100</v>
+      </c>
+      <c r="G45" s="4">
+        <v>8</v>
+      </c>
+      <c r="H45" s="4">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="3"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="3"/>
+      <c r="W45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="3"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="3"/>
+      <c r="AI45" s="2"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="3"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="4"/>
+      <c r="AR45" s="4"/>
+      <c r="AS45" s="3"/>
+      <c r="AU45" s="2"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="3"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="4"/>
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="3"/>
+      <c r="BG45" s="2"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="2"/>
+      <c r="BK45" s="3"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="4"/>
+      <c r="BP45" s="4"/>
+      <c r="BQ45" s="3"/>
+      <c r="BS45" s="2"/>
+    </row>
+    <row r="46" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9463</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>142</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="G46" s="4">
+        <v>8</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="3"/>
+      <c r="W46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="3"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="3"/>
+      <c r="AI46" s="2"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="3"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="3"/>
+      <c r="AU46" s="2"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="3"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="4"/>
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="3"/>
+      <c r="BG46" s="2"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="3"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="4"/>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="3"/>
+      <c r="BS46" s="2"/>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9464</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1">
+        <v>200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>100</v>
+      </c>
+      <c r="G47" s="4">
+        <v>8</v>
+      </c>
+      <c r="H47" s="4">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="3"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="3"/>
+      <c r="W47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="3"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="3"/>
+      <c r="AI47" s="2"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="3"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="4"/>
+      <c r="AR47" s="4"/>
+      <c r="AS47" s="3"/>
+      <c r="AU47" s="2"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="3"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="4"/>
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="3"/>
+      <c r="BG47" s="2"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="3"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="4"/>
+      <c r="BP47" s="4"/>
+      <c r="BQ47" s="3"/>
+      <c r="BS47" s="2"/>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9465</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>143</v>
+      </c>
+      <c r="E48" s="1">
+        <v>200</v>
+      </c>
+      <c r="F48" s="1">
+        <v>100</v>
+      </c>
+      <c r="G48" s="4">
+        <v>8</v>
+      </c>
+      <c r="H48" s="4">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="3"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="3"/>
+      <c r="W48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="3"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="3"/>
+      <c r="AI48" s="2"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="3"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="4"/>
+      <c r="AR48" s="4"/>
+      <c r="AS48" s="3"/>
+      <c r="AU48" s="2"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="3"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="4"/>
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="3"/>
+      <c r="BG48" s="2"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="3"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="4"/>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="3"/>
+      <c r="BS48" s="2"/>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9466</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1">
+        <v>200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>100</v>
+      </c>
+      <c r="G49" s="4">
+        <v>8</v>
+      </c>
+      <c r="H49" s="4">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="3"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="3"/>
+      <c r="W49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="3"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="3"/>
+      <c r="AI49" s="2"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="3"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="4"/>
+      <c r="AR49" s="4"/>
+      <c r="AS49" s="3"/>
+      <c r="AU49" s="2"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="3"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="4"/>
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="3"/>
+      <c r="BG49" s="2"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="3"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="4"/>
+      <c r="BP49" s="4"/>
+      <c r="BQ49" s="3"/>
+      <c r="BS49" s="2"/>
+    </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9467</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>143</v>
+      </c>
+      <c r="E50" s="1">
+        <v>200</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100</v>
+      </c>
+      <c r="G50" s="4">
+        <v>8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>5</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="3"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="3"/>
+      <c r="W50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="3"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="3"/>
+      <c r="AI50" s="2"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="3"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="4"/>
+      <c r="AR50" s="4"/>
+      <c r="AS50" s="3"/>
+      <c r="AU50" s="2"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="3"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="4"/>
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="3"/>
+      <c r="BG50" s="2"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="2"/>
+      <c r="BK50" s="3"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="4"/>
+      <c r="BP50" s="4"/>
+      <c r="BQ50" s="3"/>
+      <c r="BS50" s="2"/>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9468</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>144</v>
+      </c>
+      <c r="E51" s="1">
+        <v>200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>100</v>
+      </c>
+      <c r="G51" s="4">
+        <v>8</v>
+      </c>
+      <c r="H51" s="4">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="3"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="3"/>
+      <c r="W51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="3"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="3"/>
+      <c r="AI51" s="2"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="3"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="3"/>
+      <c r="AU51" s="2"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="3"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="4"/>
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="3"/>
+      <c r="BG51" s="2"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="3"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="4"/>
+      <c r="BP51" s="4"/>
+      <c r="BQ51" s="3"/>
+      <c r="BS51" s="2"/>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9469</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>144</v>
+      </c>
+      <c r="E52" s="1">
+        <v>200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>100</v>
+      </c>
+      <c r="G52" s="4">
+        <v>8</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="3"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="3"/>
+      <c r="W52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="3"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="3"/>
+      <c r="AI52" s="2"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="3"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="3"/>
+      <c r="AU52" s="2"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="3"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="4"/>
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="3"/>
+      <c r="BG52" s="2"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="2"/>
+      <c r="BK52" s="3"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="4"/>
+      <c r="BP52" s="4"/>
+      <c r="BQ52" s="3"/>
+      <c r="BS52" s="2"/>
+    </row>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9470</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>145</v>
+      </c>
+      <c r="E53" s="1">
+        <v>200</v>
+      </c>
+      <c r="F53" s="1">
+        <v>100</v>
+      </c>
+      <c r="G53" s="4">
+        <v>8</v>
+      </c>
+      <c r="H53" s="4">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="3"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="3"/>
+      <c r="W53" s="2"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="3"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="3"/>
+      <c r="AI53" s="2"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="3"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="3"/>
+      <c r="AU53" s="2"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="3"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="4"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="3"/>
+      <c r="BG53" s="2"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="3"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="4"/>
+      <c r="BP53" s="4"/>
+      <c r="BQ53" s="3"/>
+      <c r="BS53" s="2"/>
+    </row>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9471</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>145</v>
+      </c>
+      <c r="E54" s="1">
+        <v>200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>100</v>
+      </c>
+      <c r="G54" s="4">
+        <v>8</v>
+      </c>
+      <c r="H54" s="4">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="3"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="3"/>
+      <c r="W54" s="2"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="3"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="4"/>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="3"/>
+      <c r="AI54" s="2"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="3"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="3"/>
+      <c r="AU54" s="2"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="3"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="4"/>
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="3"/>
+      <c r="BG54" s="2"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="3"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="4"/>
+      <c r="BP54" s="4"/>
+      <c r="BQ54" s="3"/>
+      <c r="BS54" s="2"/>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>146</v>
+      </c>
+      <c r="E55" s="1">
+        <v>200</v>
+      </c>
+      <c r="F55" s="1">
+        <v>100</v>
+      </c>
+      <c r="G55" s="4">
+        <v>8</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="3">
+        <v>99</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="3"/>
+      <c r="W55" s="2"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="3"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="3"/>
+      <c r="AI55" s="2"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="3"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="4"/>
+      <c r="AR55" s="4"/>
+      <c r="AS55" s="3"/>
+      <c r="AU55" s="2"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="3"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="4"/>
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="3"/>
+      <c r="BG55" s="2"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="3"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="4"/>
+      <c r="BP55" s="4"/>
+      <c r="BQ55" s="3"/>
+      <c r="BS55" s="2"/>
+    </row>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="C56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="K56" s="2"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="3"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="3"/>
+      <c r="W56" s="2"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="3"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="3"/>
+      <c r="AI56" s="2"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="3"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="4"/>
+      <c r="AR56" s="4"/>
+      <c r="AS56" s="3"/>
+      <c r="AU56" s="2"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="3"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="4"/>
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="3"/>
+      <c r="BG56" s="2"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="2"/>
+      <c r="BK56" s="3"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="3"/>
+      <c r="BS56" s="2"/>
+    </row>
+    <row r="57" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="C57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="3"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="3"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="3"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="3"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="2"/>
+      <c r="BK57" s="3"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="4"/>
+      <c r="BP57" s="4"/>
+      <c r="BQ57" s="3"/>
+    </row>
+    <row r="58" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="3"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="3"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="3"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="3"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="3"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="4"/>
+      <c r="BP58" s="4"/>
+      <c r="BQ58" s="3"/>
+    </row>
+    <row r="59" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>129</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2838</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="3"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="3"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="3"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="3"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="3"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="4"/>
+      <c r="BP59" s="4"/>
+      <c r="BQ59" s="3"/>
+    </row>
+    <row r="60" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2839</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="3"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="3"/>
+      <c r="Y60" s="1"/>
+      <c r="AA60" s="3"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="3"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="2"/>
+      <c r="BK60" s="3"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="4"/>
+      <c r="BP60" s="4"/>
+      <c r="BQ60" s="3"/>
+    </row>
+    <row r="61" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2840</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="3"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="3"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="2"/>
+      <c r="BK61" s="3"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="4"/>
+      <c r="BP61" s="4"/>
+      <c r="BQ61" s="3"/>
+    </row>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>132</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2841</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="3"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="3"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="2"/>
+      <c r="BK62" s="3"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="4"/>
+      <c r="BP62" s="4"/>
+      <c r="BQ62" s="3"/>
+    </row>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>133</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2842</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="3"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>134</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2843</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="3"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2844</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="3"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>136</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2845</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="3"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>137</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2846</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>138</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2847</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2848</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>140</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2849</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2850</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2851</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2852</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2853</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2854</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>146</v>
+      </c>
+      <c r="B76" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2">
+        <v>9472</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>129</v>
+      </c>
+      <c r="E82" s="1">
+        <v>200</v>
+      </c>
+      <c r="F82" s="1">
+        <v>100</v>
+      </c>
+      <c r="G82" s="4">
+        <v>8</v>
+      </c>
+      <c r="H82" s="4">
+        <v>5</v>
+      </c>
+      <c r="I82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2">
+        <v>9473</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>129</v>
+      </c>
+      <c r="E83" s="1">
+        <v>200</v>
+      </c>
+      <c r="F83" s="1">
+        <v>100</v>
+      </c>
+      <c r="G83" s="4">
+        <v>8</v>
+      </c>
+      <c r="H83" s="4">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>3</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9474</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>130</v>
+      </c>
+      <c r="E84" s="1">
+        <v>200</v>
+      </c>
+      <c r="F84" s="1">
+        <v>100</v>
+      </c>
+      <c r="G84" s="4">
+        <v>8</v>
+      </c>
+      <c r="H84" s="4">
+        <v>5</v>
+      </c>
+      <c r="I84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>9475</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>130</v>
+      </c>
+      <c r="E85" s="1">
+        <v>200</v>
+      </c>
+      <c r="F85" s="1">
+        <v>100</v>
+      </c>
+      <c r="G85" s="4">
+        <v>8</v>
+      </c>
+      <c r="H85" s="4">
+        <v>5</v>
+      </c>
+      <c r="I85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2">
+        <v>9476</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>130</v>
+      </c>
+      <c r="E86" s="1">
+        <v>200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>100</v>
+      </c>
+      <c r="G86" s="4">
+        <v>8</v>
+      </c>
+      <c r="H86" s="4">
+        <v>5</v>
+      </c>
+      <c r="I86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>6</v>
+      </c>
+      <c r="B87" s="2">
+        <v>9477</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>131</v>
+      </c>
+      <c r="E87" s="1">
+        <v>200</v>
+      </c>
+      <c r="F87" s="1">
+        <v>100</v>
+      </c>
+      <c r="G87" s="4">
+        <v>8</v>
+      </c>
+      <c r="H87" s="4">
+        <v>5</v>
+      </c>
+      <c r="I87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2">
+        <v>9478</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>131</v>
+      </c>
+      <c r="E88" s="1">
+        <v>200</v>
+      </c>
+      <c r="F88" s="1">
+        <v>100</v>
+      </c>
+      <c r="G88" s="4">
+        <v>8</v>
+      </c>
+      <c r="H88" s="4">
+        <v>5</v>
+      </c>
+      <c r="I88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2">
+        <v>9479</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>132</v>
+      </c>
+      <c r="E89" s="1">
+        <v>200</v>
+      </c>
+      <c r="F89" s="1">
+        <v>100</v>
+      </c>
+      <c r="G89" s="4">
+        <v>8</v>
+      </c>
+      <c r="H89" s="4">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>9</v>
+      </c>
+      <c r="B90" s="2">
+        <v>9480</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>132</v>
+      </c>
+      <c r="E90" s="1">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1">
+        <v>100</v>
+      </c>
+      <c r="G90" s="4">
+        <v>8</v>
+      </c>
+      <c r="H90" s="4">
+        <v>5</v>
+      </c>
+      <c r="I90" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>10</v>
+      </c>
+      <c r="B91" s="2">
+        <v>9481</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>132</v>
+      </c>
+      <c r="E91" s="1">
+        <v>200</v>
+      </c>
+      <c r="F91" s="1">
+        <v>100</v>
+      </c>
+      <c r="G91" s="4">
+        <v>8</v>
+      </c>
+      <c r="H91" s="4">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>11</v>
+      </c>
+      <c r="B92" s="2">
+        <v>9482</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>133</v>
+      </c>
+      <c r="E92" s="1">
+        <v>200</v>
+      </c>
+      <c r="F92" s="1">
+        <v>100</v>
+      </c>
+      <c r="G92" s="4">
+        <v>8</v>
+      </c>
+      <c r="H92" s="4">
+        <v>5</v>
+      </c>
+      <c r="I92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>12</v>
+      </c>
+      <c r="B93" s="2">
+        <v>9483</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>133</v>
+      </c>
+      <c r="E93" s="1">
+        <v>200</v>
+      </c>
+      <c r="F93" s="1">
+        <v>100</v>
+      </c>
+      <c r="G93" s="4">
+        <v>8</v>
+      </c>
+      <c r="H93" s="4">
+        <v>5</v>
+      </c>
+      <c r="I93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" s="2">
+        <v>9484</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>133</v>
+      </c>
+      <c r="E94" s="1">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1">
+        <v>100</v>
+      </c>
+      <c r="G94" s="4">
+        <v>8</v>
+      </c>
+      <c r="H94" s="4">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>14</v>
+      </c>
+      <c r="B95" s="2">
+        <v>9485</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>134</v>
+      </c>
+      <c r="E95" s="1">
+        <v>200</v>
+      </c>
+      <c r="F95" s="1">
+        <v>100</v>
+      </c>
+      <c r="G95" s="4">
+        <v>8</v>
+      </c>
+      <c r="H95" s="4">
+        <v>5</v>
+      </c>
+      <c r="I95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>9486</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>134</v>
+      </c>
+      <c r="E96" s="1">
+        <v>200</v>
+      </c>
+      <c r="F96" s="1">
+        <v>100</v>
+      </c>
+      <c r="G96" s="4">
+        <v>8</v>
+      </c>
+      <c r="H96" s="4">
+        <v>5</v>
+      </c>
+      <c r="I96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>16</v>
+      </c>
+      <c r="B97" s="2">
+        <v>9487</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>134</v>
+      </c>
+      <c r="E97" s="1">
+        <v>200</v>
+      </c>
+      <c r="F97" s="1">
+        <v>100</v>
+      </c>
+      <c r="G97" s="4">
+        <v>8</v>
+      </c>
+      <c r="H97" s="4">
+        <v>5</v>
+      </c>
+      <c r="I97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>17</v>
+      </c>
+      <c r="B98" s="2">
+        <v>9488</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>135</v>
+      </c>
+      <c r="E98" s="1">
+        <v>200</v>
+      </c>
+      <c r="F98" s="1">
+        <v>100</v>
+      </c>
+      <c r="G98" s="4">
+        <v>8</v>
+      </c>
+      <c r="H98" s="4">
+        <v>5</v>
+      </c>
+      <c r="I98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>18</v>
+      </c>
+      <c r="B99" s="2">
+        <v>9489</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>135</v>
+      </c>
+      <c r="E99" s="1">
+        <v>200</v>
+      </c>
+      <c r="F99" s="1">
+        <v>100</v>
+      </c>
+      <c r="G99" s="4">
+        <v>8</v>
+      </c>
+      <c r="H99" s="4">
+        <v>5</v>
+      </c>
+      <c r="I99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>19</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9490</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>136</v>
+      </c>
+      <c r="E100" s="1">
+        <v>200</v>
+      </c>
+      <c r="F100" s="1">
+        <v>100</v>
+      </c>
+      <c r="G100" s="4">
+        <v>8</v>
+      </c>
+      <c r="H100" s="4">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>20</v>
+      </c>
+      <c r="B101" s="2">
+        <v>9491</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>136</v>
+      </c>
+      <c r="E101" s="1">
+        <v>200</v>
+      </c>
+      <c r="F101" s="1">
+        <v>100</v>
+      </c>
+      <c r="G101" s="4">
+        <v>8</v>
+      </c>
+      <c r="H101" s="4">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>21</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9492</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>136</v>
+      </c>
+      <c r="E102" s="1">
+        <v>200</v>
+      </c>
+      <c r="F102" s="1">
+        <v>100</v>
+      </c>
+      <c r="G102" s="4">
+        <v>8</v>
+      </c>
+      <c r="H102" s="4">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>22</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9493</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>136</v>
+      </c>
+      <c r="E103" s="1">
+        <v>200</v>
+      </c>
+      <c r="F103" s="1">
+        <v>100</v>
+      </c>
+      <c r="G103" s="4">
+        <v>8</v>
+      </c>
+      <c r="H103" s="4">
+        <v>5</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>23</v>
+      </c>
+      <c r="B104" s="2">
+        <v>9494</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>137</v>
+      </c>
+      <c r="E104" s="1">
+        <v>200</v>
+      </c>
+      <c r="F104" s="1">
+        <v>100</v>
+      </c>
+      <c r="G104" s="4">
+        <v>8</v>
+      </c>
+      <c r="H104" s="4">
+        <v>5</v>
+      </c>
+      <c r="I104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>24</v>
+      </c>
+      <c r="B105" s="2">
+        <v>9495</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>137</v>
+      </c>
+      <c r="E105" s="1">
+        <v>200</v>
+      </c>
+      <c r="F105" s="1">
+        <v>100</v>
+      </c>
+      <c r="G105" s="4">
+        <v>8</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5</v>
+      </c>
+      <c r="I105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>25</v>
+      </c>
+      <c r="B106" s="2">
+        <v>9496</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>138</v>
+      </c>
+      <c r="E106" s="1">
+        <v>200</v>
+      </c>
+      <c r="F106" s="1">
+        <v>100</v>
+      </c>
+      <c r="G106" s="4">
+        <v>8</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5</v>
+      </c>
+      <c r="I106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>26</v>
+      </c>
+      <c r="B107" s="2">
+        <v>9497</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>138</v>
+      </c>
+      <c r="E107" s="1">
+        <v>200</v>
+      </c>
+      <c r="F107" s="1">
+        <v>100</v>
+      </c>
+      <c r="G107" s="4">
+        <v>8</v>
+      </c>
+      <c r="H107" s="4">
+        <v>5</v>
+      </c>
+      <c r="I107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2">
+        <v>9498</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>138</v>
+      </c>
+      <c r="E108" s="1">
+        <v>200</v>
+      </c>
+      <c r="F108" s="1">
+        <v>100</v>
+      </c>
+      <c r="G108" s="4">
+        <v>8</v>
+      </c>
+      <c r="H108" s="4">
+        <v>5</v>
+      </c>
+      <c r="I108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>28</v>
+      </c>
+      <c r="B109" s="2">
+        <v>9499</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>139</v>
+      </c>
+      <c r="E109" s="1">
+        <v>200</v>
+      </c>
+      <c r="F109" s="1">
+        <v>100</v>
+      </c>
+      <c r="G109" s="4">
+        <v>8</v>
+      </c>
+      <c r="H109" s="4">
+        <v>5</v>
+      </c>
+      <c r="I109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>29</v>
+      </c>
+      <c r="B110" s="2">
+        <v>9500</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>139</v>
+      </c>
+      <c r="E110" s="1">
+        <v>200</v>
+      </c>
+      <c r="F110" s="1">
+        <v>100</v>
+      </c>
+      <c r="G110" s="4">
+        <v>8</v>
+      </c>
+      <c r="H110" s="4">
+        <v>5</v>
+      </c>
+      <c r="I110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>30</v>
+      </c>
+      <c r="B111" s="2">
+        <v>9501</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>139</v>
+      </c>
+      <c r="E111" s="1">
+        <v>200</v>
+      </c>
+      <c r="F111" s="1">
+        <v>100</v>
+      </c>
+      <c r="G111" s="4">
+        <v>8</v>
+      </c>
+      <c r="H111" s="4">
+        <v>5</v>
+      </c>
+      <c r="I111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>31</v>
+      </c>
+      <c r="B112" s="2">
+        <v>9502</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>140</v>
+      </c>
+      <c r="E112" s="1">
+        <v>200</v>
+      </c>
+      <c r="F112" s="1">
+        <v>100</v>
+      </c>
+      <c r="G112" s="4">
+        <v>8</v>
+      </c>
+      <c r="H112" s="4">
+        <v>5</v>
+      </c>
+      <c r="I112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>32</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9503</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>140</v>
+      </c>
+      <c r="E113" s="1">
+        <v>200</v>
+      </c>
+      <c r="F113" s="1">
+        <v>100</v>
+      </c>
+      <c r="G113" s="4">
+        <v>8</v>
+      </c>
+      <c r="H113" s="4">
+        <v>5</v>
+      </c>
+      <c r="I113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>33</v>
+      </c>
+      <c r="B114" s="2">
+        <v>9504</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>140</v>
+      </c>
+      <c r="E114" s="1">
+        <v>200</v>
+      </c>
+      <c r="F114" s="1">
+        <v>100</v>
+      </c>
+      <c r="G114" s="4">
+        <v>8</v>
+      </c>
+      <c r="H114" s="4">
+        <v>5</v>
+      </c>
+      <c r="I114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>34</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9505</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>141</v>
+      </c>
+      <c r="E115" s="1">
+        <v>200</v>
+      </c>
+      <c r="F115" s="1">
+        <v>100</v>
+      </c>
+      <c r="G115" s="4">
+        <v>8</v>
+      </c>
+      <c r="H115" s="4">
+        <v>5</v>
+      </c>
+      <c r="I115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>35</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9506</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>141</v>
+      </c>
+      <c r="E116" s="1">
+        <v>200</v>
+      </c>
+      <c r="F116" s="1">
+        <v>100</v>
+      </c>
+      <c r="G116" s="4">
+        <v>8</v>
+      </c>
+      <c r="H116" s="4">
+        <v>5</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>36</v>
+      </c>
+      <c r="B117" s="2">
+        <v>9507</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>141</v>
+      </c>
+      <c r="E117" s="1">
+        <v>200</v>
+      </c>
+      <c r="F117" s="1">
+        <v>100</v>
+      </c>
+      <c r="G117" s="4">
+        <v>8</v>
+      </c>
+      <c r="H117" s="4">
+        <v>5</v>
+      </c>
+      <c r="I117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>37</v>
+      </c>
+      <c r="B118" s="2">
+        <v>9508</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>142</v>
+      </c>
+      <c r="E118" s="1">
+        <v>200</v>
+      </c>
+      <c r="F118" s="1">
+        <v>100</v>
+      </c>
+      <c r="G118" s="4">
+        <v>8</v>
+      </c>
+      <c r="H118" s="4">
+        <v>5</v>
+      </c>
+      <c r="I118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>38</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9509</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>142</v>
+      </c>
+      <c r="E119" s="1">
+        <v>200</v>
+      </c>
+      <c r="F119" s="1">
+        <v>100</v>
+      </c>
+      <c r="G119" s="4">
+        <v>8</v>
+      </c>
+      <c r="H119" s="4">
+        <v>5</v>
+      </c>
+      <c r="I119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>39</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9510</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>142</v>
+      </c>
+      <c r="E120" s="1">
+        <v>200</v>
+      </c>
+      <c r="F120" s="1">
+        <v>100</v>
+      </c>
+      <c r="G120" s="4">
+        <v>8</v>
+      </c>
+      <c r="H120" s="4">
+        <v>5</v>
+      </c>
+      <c r="I120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>40</v>
+      </c>
+      <c r="B121" s="2">
+        <v>9511</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>143</v>
+      </c>
+      <c r="E121" s="1">
+        <v>200</v>
+      </c>
+      <c r="F121" s="1">
+        <v>100</v>
+      </c>
+      <c r="G121" s="4">
+        <v>8</v>
+      </c>
+      <c r="H121" s="4">
+        <v>5</v>
+      </c>
+      <c r="I121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>41</v>
+      </c>
+      <c r="B122" s="2">
+        <v>9512</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>143</v>
+      </c>
+      <c r="E122" s="1">
+        <v>200</v>
+      </c>
+      <c r="F122" s="1">
+        <v>100</v>
+      </c>
+      <c r="G122" s="4">
+        <v>8</v>
+      </c>
+      <c r="H122" s="4">
+        <v>5</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>42</v>
+      </c>
+      <c r="B123" s="2">
+        <v>9513</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>143</v>
+      </c>
+      <c r="E123" s="1">
+        <v>200</v>
+      </c>
+      <c r="F123" s="1">
+        <v>100</v>
+      </c>
+      <c r="G123" s="4">
+        <v>8</v>
+      </c>
+      <c r="H123" s="4">
+        <v>5</v>
+      </c>
+      <c r="I123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>43</v>
+      </c>
+      <c r="B124" s="2">
+        <v>9514</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>143</v>
+      </c>
+      <c r="E124" s="1">
+        <v>200</v>
+      </c>
+      <c r="F124" s="1">
+        <v>100</v>
+      </c>
+      <c r="G124" s="4">
+        <v>8</v>
+      </c>
+      <c r="H124" s="4">
+        <v>5</v>
+      </c>
+      <c r="I124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>44</v>
+      </c>
+      <c r="B125" s="2">
+        <v>9515</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>144</v>
+      </c>
+      <c r="E125" s="1">
+        <v>200</v>
+      </c>
+      <c r="F125" s="1">
+        <v>100</v>
+      </c>
+      <c r="G125" s="4">
+        <v>8</v>
+      </c>
+      <c r="H125" s="4">
+        <v>5</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>45</v>
+      </c>
+      <c r="B126" s="2">
+        <v>9516</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>144</v>
+      </c>
+      <c r="E126" s="1">
+        <v>200</v>
+      </c>
+      <c r="F126" s="1">
+        <v>100</v>
+      </c>
+      <c r="G126" s="4">
+        <v>8</v>
+      </c>
+      <c r="H126" s="4">
+        <v>5</v>
+      </c>
+      <c r="I126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>46</v>
+      </c>
+      <c r="B127" s="2">
+        <v>9517</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>145</v>
+      </c>
+      <c r="E127" s="1">
+        <v>200</v>
+      </c>
+      <c r="F127" s="1">
+        <v>100</v>
+      </c>
+      <c r="G127" s="4">
+        <v>8</v>
+      </c>
+      <c r="H127" s="4">
+        <v>5</v>
+      </c>
+      <c r="I127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>47</v>
+      </c>
+      <c r="B128" s="2">
+        <v>9518</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>145</v>
+      </c>
+      <c r="E128" s="1">
+        <v>200</v>
+      </c>
+      <c r="F128" s="1">
+        <v>100</v>
+      </c>
+      <c r="G128" s="4">
+        <v>8</v>
+      </c>
+      <c r="H128" s="4">
+        <v>5</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>48</v>
+      </c>
+      <c r="B129" s="2">
+        <v>9519</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>145</v>
+      </c>
+      <c r="E129" s="1">
+        <v>200</v>
+      </c>
+      <c r="F129" s="1">
+        <v>100</v>
+      </c>
+      <c r="G129" s="4">
+        <v>8</v>
+      </c>
+      <c r="H129" s="4">
+        <v>5</v>
+      </c>
+      <c r="I129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>49</v>
+      </c>
+      <c r="B130" s="2">
+        <v>9520</v>
+      </c>
+      <c r="C130" s="3">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>145</v>
+      </c>
+      <c r="E130" s="1">
+        <v>200</v>
+      </c>
+      <c r="F130" s="1">
+        <v>100</v>
+      </c>
+      <c r="G130" s="4">
+        <v>8</v>
+      </c>
+      <c r="H130" s="4">
+        <v>5</v>
+      </c>
+      <c r="I130" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>50</v>
+      </c>
+      <c r="B131" s="2">
+        <v>9521</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>146</v>
+      </c>
+      <c r="E131" s="1">
+        <v>200</v>
+      </c>
+      <c r="F131" s="1">
+        <v>100</v>
+      </c>
+      <c r="G131" s="4">
+        <v>8</v>
+      </c>
+      <c r="H131" s="4">
+        <v>5</v>
+      </c>
+      <c r="I131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>51</v>
+      </c>
+      <c r="B132" s="2">
+        <v>9522</v>
+      </c>
+      <c r="C132" s="3">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>146</v>
+      </c>
+      <c r="E132" s="1">
+        <v>200</v>
+      </c>
+      <c r="F132" s="1">
+        <v>100</v>
+      </c>
+      <c r="G132" s="4">
+        <v>8</v>
+      </c>
+      <c r="H132" s="4">
+        <v>5</v>
+      </c>
+      <c r="I132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>52</v>
+      </c>
+      <c r="B133" s="2">
+        <v>9523</v>
+      </c>
+      <c r="C133" s="3">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>147</v>
+      </c>
+      <c r="E133" s="1">
+        <v>200</v>
+      </c>
+      <c r="F133" s="1">
+        <v>100</v>
+      </c>
+      <c r="G133" s="4">
+        <v>8</v>
+      </c>
+      <c r="H133" s="4">
+        <v>5</v>
+      </c>
+      <c r="I133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>53</v>
+      </c>
+      <c r="B134" s="2">
+        <v>9524</v>
+      </c>
+      <c r="C134" s="3">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>147</v>
+      </c>
+      <c r="E134" s="1">
+        <v>200</v>
+      </c>
+      <c r="F134" s="1">
+        <v>100</v>
+      </c>
+      <c r="G134" s="4">
+        <v>8</v>
+      </c>
+      <c r="H134" s="4">
+        <v>5</v>
+      </c>
+      <c r="I134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>54</v>
+      </c>
+      <c r="B135" s="2">
+        <v>9525</v>
+      </c>
+      <c r="C135" s="3">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>147</v>
+      </c>
+      <c r="E135" s="1">
+        <v>200</v>
+      </c>
+      <c r="F135" s="1">
+        <v>100</v>
+      </c>
+      <c r="G135" s="4">
+        <v>8</v>
+      </c>
+      <c r="H135" s="4">
+        <v>5</v>
+      </c>
+      <c r="I135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>55</v>
+      </c>
+      <c r="B136" s="2">
+        <v>9526</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>148</v>
+      </c>
+      <c r="E136" s="1">
+        <v>200</v>
+      </c>
+      <c r="F136" s="1">
+        <v>100</v>
+      </c>
+      <c r="G136" s="4">
+        <v>8</v>
+      </c>
+      <c r="H136" s="4">
+        <v>5</v>
+      </c>
+      <c r="I136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>56</v>
+      </c>
+      <c r="B137" s="2">
+        <v>9527</v>
+      </c>
+      <c r="C137" s="3">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>148</v>
+      </c>
+      <c r="E137" s="1">
+        <v>200</v>
+      </c>
+      <c r="F137" s="1">
+        <v>100</v>
+      </c>
+      <c r="G137" s="4">
+        <v>8</v>
+      </c>
+      <c r="H137" s="4">
+        <v>5</v>
+      </c>
+      <c r="I137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>57</v>
+      </c>
+      <c r="B138" s="2">
+        <v>9528</v>
+      </c>
+      <c r="C138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>149</v>
+      </c>
+      <c r="E138" s="1">
+        <v>200</v>
+      </c>
+      <c r="F138" s="1">
+        <v>100</v>
+      </c>
+      <c r="G138" s="4">
+        <v>8</v>
+      </c>
+      <c r="H138" s="4">
+        <v>5</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>58</v>
+      </c>
+      <c r="B139" s="2">
+        <v>9529</v>
+      </c>
+      <c r="C139" s="3">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>149</v>
+      </c>
+      <c r="E139" s="1">
+        <v>200</v>
+      </c>
+      <c r="F139" s="1">
+        <v>100</v>
+      </c>
+      <c r="G139" s="4">
+        <v>8</v>
+      </c>
+      <c r="H139" s="4">
+        <v>5</v>
+      </c>
+      <c r="I139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>59</v>
+      </c>
+      <c r="B140" s="2">
+        <v>9530</v>
+      </c>
+      <c r="C140" s="3">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>149</v>
+      </c>
+      <c r="E140" s="1">
+        <v>200</v>
+      </c>
+      <c r="F140" s="1">
+        <v>100</v>
+      </c>
+      <c r="G140" s="4">
+        <v>8</v>
+      </c>
+      <c r="H140" s="4">
+        <v>5</v>
+      </c>
+      <c r="I140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>60</v>
+      </c>
+      <c r="B141" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C141" s="3">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>150</v>
+      </c>
+      <c r="E141" s="1">
+        <v>250</v>
+      </c>
+      <c r="F141" s="1">
+        <v>100</v>
+      </c>
+      <c r="G141" s="4">
+        <v>8</v>
+      </c>
+      <c r="H141" s="4">
+        <v>5</v>
+      </c>
+      <c r="I141" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>129</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2855</v>
+      </c>
+      <c r="C144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>130</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2856</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>131</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2857</v>
+      </c>
+      <c r="C146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>132</v>
+      </c>
+      <c r="B147" s="2">
+        <v>3221</v>
+      </c>
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>133</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3222</v>
+      </c>
+      <c r="C148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>134</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3223</v>
+      </c>
+      <c r="C149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3224</v>
+      </c>
+      <c r="C150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>136</v>
+      </c>
+      <c r="B151" s="2">
+        <v>3225</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>137</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3226</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3227</v>
+      </c>
+      <c r="C153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2">
+        <v>3228</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>140</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3229</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>141</v>
+      </c>
+      <c r="B156" s="2">
+        <v>3230</v>
+      </c>
+      <c r="C156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>142</v>
+      </c>
+      <c r="B157" s="2">
+        <v>3231</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>143</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3232</v>
+      </c>
+      <c r="C158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>144</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3233</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>145</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3234</v>
+      </c>
+      <c r="C160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>146</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3235</v>
+      </c>
+      <c r="C161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>147</v>
+      </c>
+      <c r="B162" s="2">
+        <v>3236</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>148</v>
+      </c>
+      <c r="B163" s="2">
+        <v>3237</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>149</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3238</v>
+      </c>
+      <c r="C164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>150</v>
+      </c>
+      <c r="B165" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="2">
+        <v>9531</v>
+      </c>
+      <c r="C171" s="3">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>129</v>
+      </c>
+      <c r="E171" s="1">
+        <v>200</v>
+      </c>
+      <c r="F171" s="1">
+        <v>100</v>
+      </c>
+      <c r="G171" s="4">
+        <v>8</v>
+      </c>
+      <c r="H171" s="4">
+        <v>5</v>
+      </c>
+      <c r="I171" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>2</v>
+      </c>
+      <c r="B172" s="2">
+        <v>9532</v>
+      </c>
+      <c r="C172" s="3">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1">
+        <v>129</v>
+      </c>
+      <c r="E172" s="1">
+        <v>200</v>
+      </c>
+      <c r="F172" s="1">
+        <v>100</v>
+      </c>
+      <c r="G172" s="4">
+        <v>8</v>
+      </c>
+      <c r="H172" s="4">
+        <v>5</v>
+      </c>
+      <c r="I172" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>3</v>
+      </c>
+      <c r="B173" s="2">
+        <v>9533</v>
+      </c>
+      <c r="C173" s="3">
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <v>130</v>
+      </c>
+      <c r="E173" s="1">
+        <v>200</v>
+      </c>
+      <c r="F173" s="1">
+        <v>100</v>
+      </c>
+      <c r="G173" s="4">
+        <v>8</v>
+      </c>
+      <c r="H173" s="4">
+        <v>5</v>
+      </c>
+      <c r="I173" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>9534</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>130</v>
+      </c>
+      <c r="E174" s="1">
+        <v>200</v>
+      </c>
+      <c r="F174" s="1">
+        <v>100</v>
+      </c>
+      <c r="G174" s="4">
+        <v>8</v>
+      </c>
+      <c r="H174" s="4">
+        <v>5</v>
+      </c>
+      <c r="I174" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>5</v>
+      </c>
+      <c r="B175" s="2">
+        <v>9535</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>130</v>
+      </c>
+      <c r="E175" s="1">
+        <v>200</v>
+      </c>
+      <c r="F175" s="1">
+        <v>100</v>
+      </c>
+      <c r="G175" s="4">
+        <v>8</v>
+      </c>
+      <c r="H175" s="4">
+        <v>5</v>
+      </c>
+      <c r="I175" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>6</v>
+      </c>
+      <c r="B176" s="2">
+        <v>9536</v>
+      </c>
+      <c r="C176" s="3">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>131</v>
+      </c>
+      <c r="E176" s="1">
+        <v>200</v>
+      </c>
+      <c r="F176" s="1">
+        <v>100</v>
+      </c>
+      <c r="G176" s="4">
+        <v>8</v>
+      </c>
+      <c r="H176" s="4">
+        <v>5</v>
+      </c>
+      <c r="I176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>7</v>
+      </c>
+      <c r="B177" s="2">
+        <v>9537</v>
+      </c>
+      <c r="C177" s="3">
+        <v>0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>131</v>
+      </c>
+      <c r="E177" s="1">
+        <v>200</v>
+      </c>
+      <c r="F177" s="1">
+        <v>100</v>
+      </c>
+      <c r="G177" s="4">
+        <v>8</v>
+      </c>
+      <c r="H177" s="4">
+        <v>5</v>
+      </c>
+      <c r="I177" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>8</v>
+      </c>
+      <c r="B178" s="2">
+        <v>9538</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <v>132</v>
+      </c>
+      <c r="E178" s="1">
+        <v>200</v>
+      </c>
+      <c r="F178" s="1">
+        <v>100</v>
+      </c>
+      <c r="G178" s="4">
+        <v>8</v>
+      </c>
+      <c r="H178" s="4">
+        <v>5</v>
+      </c>
+      <c r="I178" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>9</v>
+      </c>
+      <c r="B179" s="2">
+        <v>9539</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1">
+        <v>132</v>
+      </c>
+      <c r="E179" s="1">
+        <v>200</v>
+      </c>
+      <c r="F179" s="1">
+        <v>100</v>
+      </c>
+      <c r="G179" s="4">
+        <v>8</v>
+      </c>
+      <c r="H179" s="4">
+        <v>5</v>
+      </c>
+      <c r="I179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>10</v>
+      </c>
+      <c r="B180" s="2">
+        <v>9540</v>
+      </c>
+      <c r="C180" s="3">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>132</v>
+      </c>
+      <c r="E180" s="1">
+        <v>200</v>
+      </c>
+      <c r="F180" s="1">
+        <v>100</v>
+      </c>
+      <c r="G180" s="4">
+        <v>8</v>
+      </c>
+      <c r="H180" s="4">
+        <v>5</v>
+      </c>
+      <c r="I180" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>11</v>
+      </c>
+      <c r="B181" s="2">
+        <v>9541</v>
+      </c>
+      <c r="C181" s="3">
+        <v>0</v>
+      </c>
+      <c r="D181" s="1">
+        <v>133</v>
+      </c>
+      <c r="E181" s="1">
+        <v>200</v>
+      </c>
+      <c r="F181" s="1">
+        <v>100</v>
+      </c>
+      <c r="G181" s="4">
+        <v>8</v>
+      </c>
+      <c r="H181" s="4">
+        <v>5</v>
+      </c>
+      <c r="I181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>12</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9542</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>133</v>
+      </c>
+      <c r="E182" s="1">
+        <v>200</v>
+      </c>
+      <c r="F182" s="1">
+        <v>100</v>
+      </c>
+      <c r="G182" s="4">
+        <v>8</v>
+      </c>
+      <c r="H182" s="4">
+        <v>5</v>
+      </c>
+      <c r="I182" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>13</v>
+      </c>
+      <c r="B183" s="2">
+        <v>9543</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>133</v>
+      </c>
+      <c r="E183" s="1">
+        <v>200</v>
+      </c>
+      <c r="F183" s="1">
+        <v>100</v>
+      </c>
+      <c r="G183" s="4">
+        <v>8</v>
+      </c>
+      <c r="H183" s="4">
+        <v>5</v>
+      </c>
+      <c r="I183" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>14</v>
+      </c>
+      <c r="B184" s="2">
+        <v>9544</v>
+      </c>
+      <c r="C184" s="3">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>134</v>
+      </c>
+      <c r="E184" s="1">
+        <v>200</v>
+      </c>
+      <c r="F184" s="1">
+        <v>100</v>
+      </c>
+      <c r="G184" s="4">
+        <v>8</v>
+      </c>
+      <c r="H184" s="4">
+        <v>5</v>
+      </c>
+      <c r="I184" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>15</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9545</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>134</v>
+      </c>
+      <c r="E185" s="1">
+        <v>200</v>
+      </c>
+      <c r="F185" s="1">
+        <v>100</v>
+      </c>
+      <c r="G185" s="4">
+        <v>8</v>
+      </c>
+      <c r="H185" s="4">
+        <v>5</v>
+      </c>
+      <c r="I185" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>16</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9546</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>134</v>
+      </c>
+      <c r="E186" s="1">
+        <v>200</v>
+      </c>
+      <c r="F186" s="1">
+        <v>100</v>
+      </c>
+      <c r="G186" s="4">
+        <v>8</v>
+      </c>
+      <c r="H186" s="4">
+        <v>5</v>
+      </c>
+      <c r="I186" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>17</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9547</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>135</v>
+      </c>
+      <c r="E187" s="1">
+        <v>200</v>
+      </c>
+      <c r="F187" s="1">
+        <v>100</v>
+      </c>
+      <c r="G187" s="4">
+        <v>8</v>
+      </c>
+      <c r="H187" s="4">
+        <v>5</v>
+      </c>
+      <c r="I187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>18</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9548</v>
+      </c>
+      <c r="C188" s="3">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>135</v>
+      </c>
+      <c r="E188" s="1">
+        <v>200</v>
+      </c>
+      <c r="F188" s="1">
+        <v>100</v>
+      </c>
+      <c r="G188" s="4">
+        <v>8</v>
+      </c>
+      <c r="H188" s="4">
+        <v>5</v>
+      </c>
+      <c r="I188" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>19</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9549</v>
+      </c>
+      <c r="C189" s="3">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>136</v>
+      </c>
+      <c r="E189" s="1">
+        <v>200</v>
+      </c>
+      <c r="F189" s="1">
+        <v>100</v>
+      </c>
+      <c r="G189" s="4">
+        <v>8</v>
+      </c>
+      <c r="H189" s="4">
+        <v>5</v>
+      </c>
+      <c r="I189" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>20</v>
+      </c>
+      <c r="B190" s="2">
+        <v>9550</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>136</v>
+      </c>
+      <c r="E190" s="1">
+        <v>200</v>
+      </c>
+      <c r="F190" s="1">
+        <v>100</v>
+      </c>
+      <c r="G190" s="4">
+        <v>8</v>
+      </c>
+      <c r="H190" s="4">
+        <v>5</v>
+      </c>
+      <c r="I190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>21</v>
+      </c>
+      <c r="B191" s="2">
+        <v>9551</v>
+      </c>
+      <c r="C191" s="3">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>136</v>
+      </c>
+      <c r="E191" s="1">
+        <v>200</v>
+      </c>
+      <c r="F191" s="1">
+        <v>100</v>
+      </c>
+      <c r="G191" s="4">
+        <v>8</v>
+      </c>
+      <c r="H191" s="4">
+        <v>5</v>
+      </c>
+      <c r="I191" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>22</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9552</v>
+      </c>
+      <c r="C192" s="3">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>136</v>
+      </c>
+      <c r="E192" s="1">
+        <v>200</v>
+      </c>
+      <c r="F192" s="1">
+        <v>100</v>
+      </c>
+      <c r="G192" s="4">
+        <v>8</v>
+      </c>
+      <c r="H192" s="4">
+        <v>5</v>
+      </c>
+      <c r="I192" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>23</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9553</v>
+      </c>
+      <c r="C193" s="3">
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>137</v>
+      </c>
+      <c r="E193" s="1">
+        <v>200</v>
+      </c>
+      <c r="F193" s="1">
+        <v>100</v>
+      </c>
+      <c r="G193" s="4">
+        <v>8</v>
+      </c>
+      <c r="H193" s="4">
+        <v>5</v>
+      </c>
+      <c r="I193" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>24</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9554</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>137</v>
+      </c>
+      <c r="E194" s="1">
+        <v>200</v>
+      </c>
+      <c r="F194" s="1">
+        <v>100</v>
+      </c>
+      <c r="G194" s="4">
+        <v>8</v>
+      </c>
+      <c r="H194" s="4">
+        <v>5</v>
+      </c>
+      <c r="I194" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>25</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9555</v>
+      </c>
+      <c r="C195" s="3">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <v>138</v>
+      </c>
+      <c r="E195" s="1">
+        <v>200</v>
+      </c>
+      <c r="F195" s="1">
+        <v>100</v>
+      </c>
+      <c r="G195" s="4">
+        <v>8</v>
+      </c>
+      <c r="H195" s="4">
+        <v>5</v>
+      </c>
+      <c r="I195" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>26</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9556</v>
+      </c>
+      <c r="C196" s="3">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>138</v>
+      </c>
+      <c r="E196" s="1">
+        <v>200</v>
+      </c>
+      <c r="F196" s="1">
+        <v>100</v>
+      </c>
+      <c r="G196" s="4">
+        <v>8</v>
+      </c>
+      <c r="H196" s="4">
+        <v>5</v>
+      </c>
+      <c r="I196" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>27</v>
+      </c>
+      <c r="B197" s="2">
+        <v>9557</v>
+      </c>
+      <c r="C197" s="3">
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
+        <v>138</v>
+      </c>
+      <c r="E197" s="1">
+        <v>200</v>
+      </c>
+      <c r="F197" s="1">
+        <v>100</v>
+      </c>
+      <c r="G197" s="4">
+        <v>8</v>
+      </c>
+      <c r="H197" s="4">
+        <v>5</v>
+      </c>
+      <c r="I197" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>28</v>
+      </c>
+      <c r="B198" s="2">
+        <v>9558</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D198" s="1">
+        <v>139</v>
+      </c>
+      <c r="E198" s="1">
+        <v>200</v>
+      </c>
+      <c r="F198" s="1">
+        <v>100</v>
+      </c>
+      <c r="G198" s="4">
+        <v>8</v>
+      </c>
+      <c r="H198" s="4">
+        <v>5</v>
+      </c>
+      <c r="I198" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>29</v>
+      </c>
+      <c r="B199" s="2">
+        <v>9559</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
+        <v>139</v>
+      </c>
+      <c r="E199" s="1">
+        <v>200</v>
+      </c>
+      <c r="F199" s="1">
+        <v>100</v>
+      </c>
+      <c r="G199" s="4">
+        <v>8</v>
+      </c>
+      <c r="H199" s="4">
+        <v>5</v>
+      </c>
+      <c r="I199" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>30</v>
+      </c>
+      <c r="B200" s="2">
+        <v>9560</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
+        <v>139</v>
+      </c>
+      <c r="E200" s="1">
+        <v>200</v>
+      </c>
+      <c r="F200" s="1">
+        <v>100</v>
+      </c>
+      <c r="G200" s="4">
+        <v>8</v>
+      </c>
+      <c r="H200" s="4">
+        <v>5</v>
+      </c>
+      <c r="I200" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>31</v>
+      </c>
+      <c r="B201" s="2">
+        <v>9561</v>
+      </c>
+      <c r="C201" s="3">
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
+        <v>140</v>
+      </c>
+      <c r="E201" s="1">
+        <v>200</v>
+      </c>
+      <c r="F201" s="1">
+        <v>100</v>
+      </c>
+      <c r="G201" s="4">
+        <v>8</v>
+      </c>
+      <c r="H201" s="4">
+        <v>5</v>
+      </c>
+      <c r="I201" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>32</v>
+      </c>
+      <c r="B202" s="2">
+        <v>9562</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
+      <c r="D202" s="1">
+        <v>140</v>
+      </c>
+      <c r="E202" s="1">
+        <v>200</v>
+      </c>
+      <c r="F202" s="1">
+        <v>100</v>
+      </c>
+      <c r="G202" s="4">
+        <v>8</v>
+      </c>
+      <c r="H202" s="4">
+        <v>5</v>
+      </c>
+      <c r="I202" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>33</v>
+      </c>
+      <c r="B203" s="2">
+        <v>9563</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1">
+        <v>140</v>
+      </c>
+      <c r="E203" s="1">
+        <v>200</v>
+      </c>
+      <c r="F203" s="1">
+        <v>100</v>
+      </c>
+      <c r="G203" s="4">
+        <v>8</v>
+      </c>
+      <c r="H203" s="4">
+        <v>5</v>
+      </c>
+      <c r="I203" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>34</v>
+      </c>
+      <c r="B204" s="2">
+        <v>9564</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
+        <v>141</v>
+      </c>
+      <c r="E204" s="1">
+        <v>200</v>
+      </c>
+      <c r="F204" s="1">
+        <v>100</v>
+      </c>
+      <c r="G204" s="4">
+        <v>8</v>
+      </c>
+      <c r="H204" s="4">
+        <v>5</v>
+      </c>
+      <c r="I204" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>35</v>
+      </c>
+      <c r="B205" s="2">
+        <v>9565</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D205" s="1">
+        <v>141</v>
+      </c>
+      <c r="E205" s="1">
+        <v>200</v>
+      </c>
+      <c r="F205" s="1">
+        <v>100</v>
+      </c>
+      <c r="G205" s="4">
+        <v>8</v>
+      </c>
+      <c r="H205" s="4">
+        <v>5</v>
+      </c>
+      <c r="I205" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>36</v>
+      </c>
+      <c r="B206" s="2">
+        <v>9566</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0</v>
+      </c>
+      <c r="D206" s="1">
+        <v>141</v>
+      </c>
+      <c r="E206" s="1">
+        <v>200</v>
+      </c>
+      <c r="F206" s="1">
+        <v>100</v>
+      </c>
+      <c r="G206" s="4">
+        <v>8</v>
+      </c>
+      <c r="H206" s="4">
+        <v>5</v>
+      </c>
+      <c r="I206" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>37</v>
+      </c>
+      <c r="B207" s="2">
+        <v>9567</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <v>142</v>
+      </c>
+      <c r="E207" s="1">
+        <v>200</v>
+      </c>
+      <c r="F207" s="1">
+        <v>100</v>
+      </c>
+      <c r="G207" s="4">
+        <v>8</v>
+      </c>
+      <c r="H207" s="4">
+        <v>5</v>
+      </c>
+      <c r="I207" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>38</v>
+      </c>
+      <c r="B208" s="2">
+        <v>9568</v>
+      </c>
+      <c r="C208" s="3">
+        <v>0</v>
+      </c>
+      <c r="D208" s="1">
+        <v>142</v>
+      </c>
+      <c r="E208" s="1">
+        <v>200</v>
+      </c>
+      <c r="F208" s="1">
+        <v>100</v>
+      </c>
+      <c r="G208" s="4">
+        <v>8</v>
+      </c>
+      <c r="H208" s="4">
+        <v>5</v>
+      </c>
+      <c r="I208" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>39</v>
+      </c>
+      <c r="B209" s="2">
+        <v>9569</v>
+      </c>
+      <c r="C209" s="3">
+        <v>0</v>
+      </c>
+      <c r="D209" s="1">
+        <v>142</v>
+      </c>
+      <c r="E209" s="1">
+        <v>200</v>
+      </c>
+      <c r="F209" s="1">
+        <v>100</v>
+      </c>
+      <c r="G209" s="4">
+        <v>8</v>
+      </c>
+      <c r="H209" s="4">
+        <v>5</v>
+      </c>
+      <c r="I209" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>40</v>
+      </c>
+      <c r="B210" s="2">
+        <v>9570</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <v>143</v>
+      </c>
+      <c r="E210" s="1">
+        <v>200</v>
+      </c>
+      <c r="F210" s="1">
+        <v>100</v>
+      </c>
+      <c r="G210" s="4">
+        <v>8</v>
+      </c>
+      <c r="H210" s="4">
+        <v>5</v>
+      </c>
+      <c r="I210" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>41</v>
+      </c>
+      <c r="B211" s="2">
+        <v>9571</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
+        <v>143</v>
+      </c>
+      <c r="E211" s="1">
+        <v>200</v>
+      </c>
+      <c r="F211" s="1">
+        <v>100</v>
+      </c>
+      <c r="G211" s="4">
+        <v>8</v>
+      </c>
+      <c r="H211" s="4">
+        <v>5</v>
+      </c>
+      <c r="I211" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>42</v>
+      </c>
+      <c r="B212" s="2">
+        <v>9572</v>
+      </c>
+      <c r="C212" s="3">
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <v>143</v>
+      </c>
+      <c r="E212" s="1">
+        <v>200</v>
+      </c>
+      <c r="F212" s="1">
+        <v>100</v>
+      </c>
+      <c r="G212" s="4">
+        <v>8</v>
+      </c>
+      <c r="H212" s="4">
+        <v>5</v>
+      </c>
+      <c r="I212" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>43</v>
+      </c>
+      <c r="B213" s="2">
+        <v>9573</v>
+      </c>
+      <c r="C213" s="3">
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <v>143</v>
+      </c>
+      <c r="E213" s="1">
+        <v>200</v>
+      </c>
+      <c r="F213" s="1">
+        <v>100</v>
+      </c>
+      <c r="G213" s="4">
+        <v>8</v>
+      </c>
+      <c r="H213" s="4">
+        <v>5</v>
+      </c>
+      <c r="I213" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>44</v>
+      </c>
+      <c r="B214" s="2">
+        <v>9574</v>
+      </c>
+      <c r="C214" s="3">
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <v>144</v>
+      </c>
+      <c r="E214" s="1">
+        <v>200</v>
+      </c>
+      <c r="F214" s="1">
+        <v>100</v>
+      </c>
+      <c r="G214" s="4">
+        <v>8</v>
+      </c>
+      <c r="H214" s="4">
+        <v>5</v>
+      </c>
+      <c r="I214" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>45</v>
+      </c>
+      <c r="B215" s="2">
+        <v>9575</v>
+      </c>
+      <c r="C215" s="3">
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <v>144</v>
+      </c>
+      <c r="E215" s="1">
+        <v>200</v>
+      </c>
+      <c r="F215" s="1">
+        <v>100</v>
+      </c>
+      <c r="G215" s="4">
+        <v>8</v>
+      </c>
+      <c r="H215" s="4">
+        <v>5</v>
+      </c>
+      <c r="I215" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>46</v>
+      </c>
+      <c r="B216" s="2">
+        <v>9576</v>
+      </c>
+      <c r="C216" s="3">
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <v>145</v>
+      </c>
+      <c r="E216" s="1">
+        <v>200</v>
+      </c>
+      <c r="F216" s="1">
+        <v>100</v>
+      </c>
+      <c r="G216" s="4">
+        <v>8</v>
+      </c>
+      <c r="H216" s="4">
+        <v>5</v>
+      </c>
+      <c r="I216" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>47</v>
+      </c>
+      <c r="B217" s="2">
+        <v>9577</v>
+      </c>
+      <c r="C217" s="3">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>145</v>
+      </c>
+      <c r="E217" s="1">
+        <v>200</v>
+      </c>
+      <c r="F217" s="1">
+        <v>100</v>
+      </c>
+      <c r="G217" s="4">
+        <v>8</v>
+      </c>
+      <c r="H217" s="4">
+        <v>5</v>
+      </c>
+      <c r="I217" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>48</v>
+      </c>
+      <c r="B218" s="2">
+        <v>9578</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <v>145</v>
+      </c>
+      <c r="E218" s="1">
+        <v>200</v>
+      </c>
+      <c r="F218" s="1">
+        <v>100</v>
+      </c>
+      <c r="G218" s="4">
+        <v>8</v>
+      </c>
+      <c r="H218" s="4">
+        <v>5</v>
+      </c>
+      <c r="I218" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>49</v>
+      </c>
+      <c r="B219" s="2">
+        <v>9579</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <v>145</v>
+      </c>
+      <c r="E219" s="1">
+        <v>200</v>
+      </c>
+      <c r="F219" s="1">
+        <v>100</v>
+      </c>
+      <c r="G219" s="4">
+        <v>8</v>
+      </c>
+      <c r="H219" s="4">
+        <v>5</v>
+      </c>
+      <c r="I219" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>50</v>
+      </c>
+      <c r="B220" s="2">
+        <v>9580</v>
+      </c>
+      <c r="C220" s="3">
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <v>146</v>
+      </c>
+      <c r="E220" s="1">
+        <v>200</v>
+      </c>
+      <c r="F220" s="1">
+        <v>100</v>
+      </c>
+      <c r="G220" s="4">
+        <v>8</v>
+      </c>
+      <c r="H220" s="4">
+        <v>5</v>
+      </c>
+      <c r="I220" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>51</v>
+      </c>
+      <c r="B221" s="2">
+        <v>9581</v>
+      </c>
+      <c r="C221" s="3">
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <v>146</v>
+      </c>
+      <c r="E221" s="1">
+        <v>200</v>
+      </c>
+      <c r="F221" s="1">
+        <v>100</v>
+      </c>
+      <c r="G221" s="4">
+        <v>8</v>
+      </c>
+      <c r="H221" s="4">
+        <v>5</v>
+      </c>
+      <c r="I221" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>52</v>
+      </c>
+      <c r="B222" s="2">
+        <v>9582</v>
+      </c>
+      <c r="C222" s="3">
+        <v>0</v>
+      </c>
+      <c r="D222" s="1">
+        <v>147</v>
+      </c>
+      <c r="E222" s="1">
+        <v>200</v>
+      </c>
+      <c r="F222" s="1">
+        <v>100</v>
+      </c>
+      <c r="G222" s="4">
+        <v>8</v>
+      </c>
+      <c r="H222" s="4">
+        <v>5</v>
+      </c>
+      <c r="I222" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>53</v>
+      </c>
+      <c r="B223" s="2">
+        <v>9583</v>
+      </c>
+      <c r="C223" s="3">
+        <v>0</v>
+      </c>
+      <c r="D223" s="1">
+        <v>147</v>
+      </c>
+      <c r="E223" s="1">
+        <v>200</v>
+      </c>
+      <c r="F223" s="1">
+        <v>100</v>
+      </c>
+      <c r="G223" s="4">
+        <v>8</v>
+      </c>
+      <c r="H223" s="4">
+        <v>5</v>
+      </c>
+      <c r="I223" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>54</v>
+      </c>
+      <c r="B224" s="2">
+        <v>9584</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0</v>
+      </c>
+      <c r="D224" s="1">
+        <v>147</v>
+      </c>
+      <c r="E224" s="1">
+        <v>200</v>
+      </c>
+      <c r="F224" s="1">
+        <v>100</v>
+      </c>
+      <c r="G224" s="4">
+        <v>8</v>
+      </c>
+      <c r="H224" s="4">
+        <v>5</v>
+      </c>
+      <c r="I224" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>55</v>
+      </c>
+      <c r="B225" s="2">
+        <v>9585</v>
+      </c>
+      <c r="C225" s="3">
+        <v>0</v>
+      </c>
+      <c r="D225" s="1">
+        <v>148</v>
+      </c>
+      <c r="E225" s="1">
+        <v>200</v>
+      </c>
+      <c r="F225" s="1">
+        <v>100</v>
+      </c>
+      <c r="G225" s="4">
+        <v>8</v>
+      </c>
+      <c r="H225" s="4">
+        <v>5</v>
+      </c>
+      <c r="I225" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>56</v>
+      </c>
+      <c r="B226" s="2">
+        <v>9586</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="1">
+        <v>148</v>
+      </c>
+      <c r="E226" s="1">
+        <v>200</v>
+      </c>
+      <c r="F226" s="1">
+        <v>100</v>
+      </c>
+      <c r="G226" s="4">
+        <v>8</v>
+      </c>
+      <c r="H226" s="4">
+        <v>5</v>
+      </c>
+      <c r="I226" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>57</v>
+      </c>
+      <c r="B227" s="2">
+        <v>9587</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
+      <c r="D227" s="1">
+        <v>149</v>
+      </c>
+      <c r="E227" s="1">
+        <v>200</v>
+      </c>
+      <c r="F227" s="1">
+        <v>100</v>
+      </c>
+      <c r="G227" s="4">
+        <v>8</v>
+      </c>
+      <c r="H227" s="4">
+        <v>5</v>
+      </c>
+      <c r="I227" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>58</v>
+      </c>
+      <c r="B228" s="2">
+        <v>9588</v>
+      </c>
+      <c r="C228" s="3">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <v>149</v>
+      </c>
+      <c r="E228" s="1">
+        <v>200</v>
+      </c>
+      <c r="F228" s="1">
+        <v>100</v>
+      </c>
+      <c r="G228" s="4">
+        <v>8</v>
+      </c>
+      <c r="H228" s="4">
+        <v>5</v>
+      </c>
+      <c r="I228" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>59</v>
+      </c>
+      <c r="B229" s="2">
+        <v>9589</v>
+      </c>
+      <c r="C229" s="3">
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <v>149</v>
+      </c>
+      <c r="E229" s="1">
+        <v>200</v>
+      </c>
+      <c r="F229" s="1">
+        <v>100</v>
+      </c>
+      <c r="G229" s="4">
+        <v>8</v>
+      </c>
+      <c r="H229" s="4">
+        <v>5</v>
+      </c>
+      <c r="I229" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>60</v>
+      </c>
+      <c r="B230" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C230" s="3">
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <v>150</v>
+      </c>
+      <c r="E230" s="1">
+        <v>200</v>
+      </c>
+      <c r="F230" s="1">
+        <v>100</v>
+      </c>
+      <c r="G230" s="4">
+        <v>8</v>
+      </c>
+      <c r="H230" s="4">
+        <v>5</v>
+      </c>
+      <c r="I230" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C231" s="3"/>
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>129</v>
+      </c>
+      <c r="B233" s="2">
+        <v>3239</v>
+      </c>
+      <c r="C233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>130</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3240</v>
+      </c>
+      <c r="C234" s="3">
+        <v>0</v>
+      </c>
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>131</v>
+      </c>
+      <c r="B235" s="2">
+        <v>3241</v>
+      </c>
+      <c r="C235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>132</v>
+      </c>
+      <c r="B236" s="2">
+        <v>3242</v>
+      </c>
+      <c r="C236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>133</v>
+      </c>
+      <c r="B237" s="2">
+        <v>3243</v>
+      </c>
+      <c r="C237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>134</v>
+      </c>
+      <c r="B238" s="2">
+        <v>3244</v>
+      </c>
+      <c r="C238" s="3">
+        <v>0</v>
+      </c>
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>135</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3245</v>
+      </c>
+      <c r="C239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>136</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3246</v>
+      </c>
+      <c r="C240" s="3">
+        <v>0</v>
+      </c>
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>137</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3247</v>
+      </c>
+      <c r="C241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>138</v>
+      </c>
+      <c r="B242" s="2">
+        <v>3248</v>
+      </c>
+      <c r="C242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>139</v>
+      </c>
+      <c r="B243" s="2">
+        <v>3249</v>
+      </c>
+      <c r="C243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>140</v>
+      </c>
+      <c r="B244" s="2">
+        <v>3250</v>
+      </c>
+      <c r="C244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>141</v>
+      </c>
+      <c r="B245" s="2">
+        <v>3251</v>
+      </c>
+      <c r="C245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>142</v>
+      </c>
+      <c r="B246" s="2">
+        <v>3252</v>
+      </c>
+      <c r="C246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>143</v>
+      </c>
+      <c r="B247" s="2">
+        <v>3253</v>
+      </c>
+      <c r="C247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>144</v>
+      </c>
+      <c r="B248" s="2">
+        <v>3254</v>
+      </c>
+      <c r="C248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>145</v>
+      </c>
+      <c r="B249" s="2">
+        <v>3255</v>
+      </c>
+      <c r="C249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>146</v>
+      </c>
+      <c r="B250" s="2">
+        <v>3256</v>
+      </c>
+      <c r="C250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>147</v>
+      </c>
+      <c r="B251" s="2">
+        <v>3257</v>
+      </c>
+      <c r="C251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>148</v>
+      </c>
+      <c r="B252" s="2">
+        <v>3258</v>
+      </c>
+      <c r="C252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>149</v>
+      </c>
+      <c r="B253" s="2">
+        <v>3259</v>
+      </c>
+      <c r="C253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>150</v>
+      </c>
+      <c r="B254" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B319" s="5"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B322" s="5"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B323" s="5"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B325" s="5"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B326" s="5"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B332" s="5"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B333" s="5"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B334" s="5"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B337" s="5"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B338" s="5"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B339" s="5"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B340" s="5"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B341" s="5"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B342" s="5"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B343" s="5"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B344" s="5"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B348" s="5"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B354" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
